--- a/data/statistical/filled_NaN_xlsx/吉林省_NaN_filled_polynomial.xlsx
+++ b/data/statistical/filled_NaN_xlsx/吉林省_NaN_filled_polynomial.xlsx
@@ -600,7 +600,7 @@
         <v>36.5</v>
       </c>
       <c r="E2">
-        <v>3076.0857145302</v>
+        <v>3076.085714573041</v>
       </c>
       <c r="F2">
         <v>4973.88</v>
@@ -609,85 +609,85 @@
         <v>3.19</v>
       </c>
       <c r="H2">
-        <v>55.15616723595303</v>
+        <v>55.15616723580752</v>
       </c>
       <c r="I2">
-        <v>4.410712074270123</v>
+        <v>4.410712074283765</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>-5.344000565353781</v>
       </c>
       <c r="K2">
-        <v>35.54782145784702</v>
+        <v>35.54782145645004</v>
       </c>
       <c r="L2">
-        <v>1.435709104540365</v>
+        <v>1.435709104482157</v>
       </c>
       <c r="M2">
-        <v>122.6104310366791</v>
+        <v>122.6104310348164</v>
       </c>
       <c r="N2">
-        <v>150.3818627435248</v>
+        <v>150.3818627397995</v>
       </c>
       <c r="O2">
-        <v>25.51901959860697</v>
+        <v>25.5190196079202</v>
       </c>
       <c r="P2">
-        <v>4120.838537012206</v>
+        <v>2827.244367662462</v>
       </c>
       <c r="Q2">
-        <v>90.88215686343028</v>
+        <v>90.88215686261537</v>
       </c>
       <c r="R2">
-        <v>22.06268575089052</v>
+        <v>22.06268574832939</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-31202.88631248474</v>
       </c>
       <c r="T2">
-        <v>50475.42692494392</v>
+        <v>50475.42691421509</v>
       </c>
       <c r="U2">
-        <v>0.9081758241518401</v>
+        <v>0.9081758241445641</v>
       </c>
       <c r="V2">
-        <v>7.543725500581786</v>
+        <v>7.543725497554988</v>
       </c>
       <c r="W2">
-        <v>50.53527473798022</v>
+        <v>50.53527472307906</v>
       </c>
       <c r="X2">
-        <v>5620.879902899265</v>
+        <v>5620.879901885986</v>
       </c>
       <c r="Y2">
-        <v>68.98692857695278</v>
+        <v>68.98692857899005</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-12257.47484755516</v>
       </c>
       <c r="AA2">
-        <v>49.96452871409924</v>
+        <v>-55.26748251495883</v>
       </c>
       <c r="AB2">
-        <v>107330.9089331627</v>
+        <v>-65244.83482670784</v>
       </c>
       <c r="AC2">
-        <v>337484.1935901642</v>
+        <v>15363.54980689287</v>
       </c>
       <c r="AD2">
-        <v>465.9965038299561</v>
+        <v>-914.2237764466554</v>
       </c>
       <c r="AE2">
-        <v>1298.040758512034</v>
+        <v>-90.71378883754369</v>
       </c>
       <c r="AF2">
-        <v>2212.54522526961</v>
+        <v>-58780.00022029877</v>
       </c>
       <c r="AG2">
-        <v>1970.927404473619</v>
+        <v>686.6430313564105</v>
       </c>
       <c r="AH2">
-        <v>93884.04495078325</v>
+        <v>6582.307169078433</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -713,13 +713,13 @@
         <v>1.61</v>
       </c>
       <c r="H3">
-        <v>54.45899507365539</v>
+        <v>54.45899507356808</v>
       </c>
       <c r="I3">
         <v>4.3</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>-2.020967222284526</v>
       </c>
       <c r="K3">
         <v>32.3055655727852</v>
@@ -743,13 +743,13 @@
         <v>92.23999999999999</v>
       </c>
       <c r="R3">
-        <v>18.1021568570286</v>
+        <v>18.10215685376897</v>
       </c>
       <c r="S3">
         <v>23750</v>
       </c>
       <c r="T3">
-        <v>55890.26373839378</v>
+        <v>55890.2637283802</v>
       </c>
       <c r="U3">
         <v>0.89</v>
@@ -764,34 +764,34 @@
         <v>8337</v>
       </c>
       <c r="Y3">
-        <v>68.12208516930696</v>
+        <v>68.12208517105319</v>
       </c>
       <c r="Z3">
-        <v>7.762250661849976</v>
+        <v>7.762252688407898</v>
       </c>
       <c r="AA3">
-        <v>57.59472150375361</v>
+        <v>-46.33391608064994</v>
       </c>
       <c r="AB3">
-        <v>98424.67151689529</v>
+        <v>-55345.41629004478</v>
       </c>
       <c r="AC3">
-        <v>292808.0260944366</v>
+        <v>13809.71589326859</v>
       </c>
       <c r="AD3">
-        <v>393.0174827948213</v>
+        <v>-789.9860141724348</v>
       </c>
       <c r="AE3">
-        <v>246.1774289146304</v>
+        <v>-80.1001242379989</v>
       </c>
       <c r="AF3">
-        <v>2292.580519951145</v>
+        <v>-50110.00018954277</v>
       </c>
       <c r="AG3">
-        <v>3813.561450299129</v>
+        <v>977.01273614908</v>
       </c>
       <c r="AH3">
-        <v>87919.25858390331</v>
+        <v>202.0231217747942</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -817,13 +817,13 @@
         <v>1.76</v>
       </c>
       <c r="H4">
-        <v>53.88190833452973</v>
+        <v>53.88190833444241</v>
       </c>
       <c r="I4">
         <v>4.2</v>
       </c>
       <c r="J4">
-        <v>3.028313962277025</v>
+        <v>3.028313985560089</v>
       </c>
       <c r="K4">
         <v>26.58543694607</v>
@@ -847,7 +847,7 @@
         <v>92.64</v>
       </c>
       <c r="R4">
-        <v>14.68014705460519</v>
+        <v>14.68014705064707</v>
       </c>
       <c r="S4">
         <v>25942.9</v>
@@ -868,34 +868,34 @@
         <v>8544</v>
       </c>
       <c r="Y4">
-        <v>67.43928846507333</v>
+        <v>67.43928846647032</v>
       </c>
       <c r="Z4">
         <v>57186</v>
       </c>
       <c r="AA4">
-        <v>53.04990790248359</v>
+        <v>-37.99925074540079</v>
       </c>
       <c r="AB4">
-        <v>90752.05023479462</v>
+        <v>-46022.65594530106</v>
       </c>
       <c r="AC4">
-        <v>252736.1429653168</v>
+        <v>12493.75036090612</v>
       </c>
       <c r="AD4">
-        <v>336.0114887394011</v>
+        <v>-672.6653348188847</v>
       </c>
       <c r="AE4">
-        <v>448.0184113489871</v>
+        <v>-69.48115943174162</v>
       </c>
       <c r="AF4">
-        <v>1573.659423787387</v>
+        <v>-42125.00016117096</v>
       </c>
       <c r="AG4">
-        <v>1914.980660026604</v>
+        <v>-232.9115517816501</v>
       </c>
       <c r="AH4">
-        <v>82101.49114829302</v>
+        <v>296.6951322133285</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -927,7 +927,7 @@
         <v>4.2</v>
       </c>
       <c r="J5">
-        <v>9.803843036293983</v>
+        <v>9.803843057248741</v>
       </c>
       <c r="K5">
         <v>24.0100876453966</v>
@@ -972,34 +972,34 @@
         <v>12559</v>
       </c>
       <c r="Y5">
-        <v>66.93853846431011</v>
+        <v>66.93853846535785</v>
       </c>
       <c r="Z5">
         <v>31049</v>
       </c>
       <c r="AA5">
-        <v>65.73726034821289</v>
+        <v>-30.26348650967702</v>
       </c>
       <c r="AB5">
-        <v>84313.04508733749</v>
+        <v>-37276.55379295349</v>
       </c>
       <c r="AC5">
-        <v>217268.5442085266</v>
+        <v>11415.65321016312</v>
       </c>
       <c r="AD5">
-        <v>294.9785216599703</v>
+        <v>-562.2617383841425</v>
       </c>
       <c r="AE5">
-        <v>78.32721286922799</v>
+        <v>-58.85689441877184</v>
       </c>
       <c r="AF5">
-        <v>426.8939982624548</v>
+        <v>-34825.00013446808</v>
       </c>
       <c r="AG5">
-        <v>1917.22572936707</v>
+        <v>1230.619554143443</v>
       </c>
       <c r="AH5">
-        <v>76430.74264389277</v>
+        <v>146.9765845002357</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1076,34 +1076,34 @@
         <v>12808</v>
       </c>
       <c r="Y6">
-        <v>66.61983516684268</v>
+        <v>66.61983516754117</v>
       </c>
       <c r="Z6">
         <v>37965</v>
       </c>
       <c r="AA6">
-        <v>56.27347249100698</v>
+        <v>-23.12662337254733</v>
       </c>
       <c r="AB6">
-        <v>79107.65607452393</v>
+        <v>-29107.10983228683</v>
       </c>
       <c r="AC6">
-        <v>186405.2298126221</v>
+        <v>10575.42444080114</v>
       </c>
       <c r="AD6">
-        <v>269.9185815565288</v>
+        <v>-458.7752248700708</v>
       </c>
       <c r="AE6">
-        <v>1765.00251028715</v>
+        <v>-48.2273291990914</v>
       </c>
       <c r="AF6">
-        <v>40.94050754943851</v>
+        <v>-28210.00011062622</v>
       </c>
       <c r="AG6">
-        <v>2749.486751225929</v>
+        <v>44.7370200498864</v>
       </c>
       <c r="AH6">
-        <v>70907.01307100058</v>
+        <v>6088.740869080468</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1186,28 +1186,28 @@
         <v>19892</v>
       </c>
       <c r="AA7">
-        <v>51.86947289828883</v>
+        <v>-16.58866133424453</v>
       </c>
       <c r="AB7">
-        <v>75135.8831949234</v>
+        <v>-21514.32406425476</v>
       </c>
       <c r="AC7">
-        <v>160146.1997890472</v>
+        <v>9973.064052939415</v>
       </c>
       <c r="AD7">
-        <v>260.8316684402525</v>
+        <v>-362.2057942766696</v>
       </c>
       <c r="AE7">
-        <v>-45.91336458325077</v>
+        <v>-37.59246377269483</v>
       </c>
       <c r="AF7">
-        <v>1099.945269719613</v>
+        <v>-22280.00008916855</v>
       </c>
       <c r="AG7">
-        <v>3196.544007135477</v>
+        <v>-43.2092120606526</v>
       </c>
       <c r="AH7">
-        <v>65530.30242931843</v>
+        <v>6647.450182431387</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1290,28 +1290,28 @@
         <v>26114</v>
       </c>
       <c r="AA8">
-        <v>67.41882024102834</v>
+        <v>-10.64960039500147</v>
       </c>
       <c r="AB8">
-        <v>72397.72644948959</v>
+        <v>-14498.19648838043</v>
       </c>
       <c r="AC8">
-        <v>138491.454126358</v>
+        <v>9608.572046518326</v>
       </c>
       <c r="AD8">
-        <v>267.717782292515</v>
+        <v>-272.5534466020763</v>
       </c>
       <c r="AE8">
-        <v>1920.33468355285</v>
+        <v>-26.9522981395894</v>
       </c>
       <c r="AF8">
-        <v>202.6051255252817</v>
+        <v>-17035.00006985664</v>
       </c>
       <c r="AG8">
-        <v>1639.528068423676</v>
+        <v>860.8167240377715</v>
       </c>
       <c r="AH8">
-        <v>60300.61071902514</v>
+        <v>6230.2781810144</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1394,28 +1394,28 @@
         <v>30228</v>
       </c>
       <c r="AA9">
-        <v>51.77186425681057</v>
+        <v>-5.309440554818138</v>
       </c>
       <c r="AB9">
-        <v>70893.18583965302</v>
+        <v>-8058.727104902267</v>
       </c>
       <c r="AC9">
-        <v>121440.9928302765</v>
+        <v>9481.948421597481</v>
       </c>
       <c r="AD9">
-        <v>290.5769231244922</v>
+        <v>-189.8181818481535</v>
       </c>
       <c r="AE9">
-        <v>-255.802379934189</v>
+        <v>-16.30683229977149</v>
       </c>
       <c r="AF9">
-        <v>-44.42345571576778</v>
+        <v>-12475.00005245209</v>
       </c>
       <c r="AG9">
-        <v>4291.41959527519</v>
+        <v>398.5043750239828</v>
       </c>
       <c r="AH9">
-        <v>55217.93794000149</v>
+        <v>1851.050500320433</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1498,28 +1498,28 @@
         <v>82584</v>
       </c>
       <c r="AA10">
-        <v>57.89521844378753</v>
+        <v>-0.568181814160198</v>
       </c>
       <c r="AB10">
-        <v>70622.26136255264</v>
+        <v>-2195.915913581848</v>
       </c>
       <c r="AC10">
-        <v>108994.8159065247</v>
+        <v>9593.193178057671</v>
       </c>
       <c r="AD10">
-        <v>329.4090909324586</v>
+        <v>-114.0000000149012</v>
       </c>
       <c r="AE10">
-        <v>1708.339969614368</v>
+        <v>-5.656066253241079</v>
       </c>
       <c r="AF10">
-        <v>2340.1400632432</v>
+        <v>-8600.000037908554</v>
       </c>
       <c r="AG10">
-        <v>1803.73696322065</v>
+        <v>405.3716783985194</v>
       </c>
       <c r="AH10">
-        <v>50282.2840924263</v>
+        <v>1748.622602777906</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1602,28 +1602,28 @@
         <v>36424</v>
       </c>
       <c r="AA11">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="AB11">
-        <v>63664</v>
+        <v>16607</v>
       </c>
       <c r="AC11">
-        <v>82807</v>
+        <v>19075</v>
       </c>
       <c r="AD11">
-        <v>265</v>
+        <v>23</v>
       </c>
       <c r="AE11">
-        <v>663</v>
+        <v>5</v>
       </c>
       <c r="AF11">
-        <v>73</v>
+        <v>-5410.000025510788</v>
       </c>
       <c r="AG11">
-        <v>2801</v>
+        <v>684.433813922494</v>
       </c>
       <c r="AH11">
-        <v>30258</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1706,28 +1706,28 @@
         <v>28166</v>
       </c>
       <c r="AA12">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="AB12">
-        <v>72789</v>
+        <v>2210</v>
       </c>
       <c r="AC12">
-        <v>99521</v>
+        <v>3257</v>
       </c>
       <c r="AD12">
-        <v>559</v>
+        <v>12</v>
       </c>
       <c r="AE12">
-        <v>4449</v>
+        <v>15.6613664599536</v>
       </c>
       <c r="AF12">
-        <v>1346</v>
+        <v>-2905.000015735626</v>
       </c>
       <c r="AG12">
-        <v>3216</v>
+        <v>611.773503661511</v>
       </c>
       <c r="AH12">
-        <v>46649</v>
+        <v>9757</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1810,28 +1810,28 @@
         <v>112446</v>
       </c>
       <c r="AA13">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="AB13">
-        <v>72387</v>
+        <v>3448</v>
       </c>
       <c r="AC13">
-        <v>108333</v>
+        <v>6399</v>
       </c>
       <c r="AD13">
-        <v>606</v>
+        <v>19</v>
       </c>
       <c r="AE13">
-        <v>627</v>
+        <v>26.3280331266196</v>
       </c>
       <c r="AF13">
-        <v>3700</v>
+        <v>-1085.000007867813</v>
       </c>
       <c r="AG13">
-        <v>4192</v>
+        <v>187</v>
       </c>
       <c r="AH13">
-        <v>60788</v>
+        <v>5410</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -1914,28 +1914,28 @@
         <v>108523</v>
       </c>
       <c r="AA14">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="AB14">
-        <v>92244</v>
+        <v>4692</v>
       </c>
       <c r="AC14">
-        <v>133254</v>
+        <v>8658</v>
       </c>
       <c r="AD14">
-        <v>596</v>
+        <v>61</v>
       </c>
       <c r="AE14">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF14">
-        <v>916</v>
+        <v>50</v>
       </c>
       <c r="AG14">
-        <v>474</v>
+        <v>150</v>
       </c>
       <c r="AH14">
-        <v>11461</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2018,28 +2018,28 @@
         <v>199851</v>
       </c>
       <c r="AA15">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="AB15">
-        <v>93606</v>
+        <v>12416</v>
       </c>
       <c r="AC15">
-        <v>109691</v>
+        <v>8853</v>
       </c>
       <c r="AD15">
-        <v>769</v>
+        <v>114</v>
       </c>
       <c r="AE15">
-        <v>47</v>
+        <v>47.677267080091</v>
       </c>
       <c r="AF15">
-        <v>4687</v>
+        <v>500</v>
       </c>
       <c r="AG15">
-        <v>6250</v>
+        <v>50</v>
       </c>
       <c r="AH15">
-        <v>43751</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2122,28 +2122,28 @@
         <v>157905</v>
       </c>
       <c r="AA16">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="AB16">
-        <v>117146</v>
+        <v>23494</v>
       </c>
       <c r="AC16">
-        <v>125760</v>
+        <v>18914</v>
       </c>
       <c r="AD16">
-        <v>950</v>
+        <v>138</v>
       </c>
       <c r="AE16">
-        <v>526.5491717379252</v>
+        <v>58.3598343668946</v>
       </c>
       <c r="AF16">
-        <v>54</v>
+        <v>265</v>
       </c>
       <c r="AG16">
-        <v>1062</v>
+        <v>375</v>
       </c>
       <c r="AH16">
-        <v>29386</v>
+        <v>6094</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2178,10 +2178,10 @@
         <v>262.79</v>
       </c>
       <c r="K17">
-        <v>9.417551376856863</v>
+        <v>9.417551378021017</v>
       </c>
       <c r="L17">
-        <v>0.7101259648516134</v>
+        <v>0.71012596491164</v>
       </c>
       <c r="M17">
         <v>8.21002734779883</v>
@@ -2226,28 +2226,28 @@
         <v>153038</v>
       </c>
       <c r="AA17">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="AB17">
-        <v>118036.4</v>
+        <v>41448.1</v>
       </c>
       <c r="AC17">
-        <v>168123.6</v>
+        <v>34076.4</v>
       </c>
       <c r="AD17">
-        <v>1046</v>
+        <v>341</v>
       </c>
       <c r="AE17">
-        <v>125.2996349773178</v>
+        <v>69.04770186040879</v>
       </c>
       <c r="AF17">
-        <v>56</v>
+        <v>-655</v>
       </c>
       <c r="AG17">
-        <v>50</v>
+        <v>470</v>
       </c>
       <c r="AH17">
-        <v>10933</v>
+        <v>975</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2282,10 +2282,10 @@
         <v>320</v>
       </c>
       <c r="K18">
-        <v>10.35311699763406</v>
+        <v>10.35311699938029</v>
       </c>
       <c r="L18">
-        <v>0.7184866050283745</v>
+        <v>0.7184866050956771</v>
       </c>
       <c r="M18">
         <v>5.94283637000468</v>
@@ -2312,13 +2312,13 @@
         <v>37434</v>
       </c>
       <c r="U18">
-        <v>0.4396043956257927</v>
+        <v>0.4396043956112408</v>
       </c>
       <c r="V18">
         <v>93.59999999999999</v>
       </c>
       <c r="W18">
-        <v>100.0907032839023</v>
+        <v>100.0907033011317</v>
       </c>
       <c r="X18">
         <v>9880</v>
@@ -2330,28 +2330,28 @@
         <v>122657</v>
       </c>
       <c r="AA18">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="AB18">
-        <v>96750.7</v>
+        <v>27674.8</v>
       </c>
       <c r="AC18">
-        <v>161834.2</v>
+        <v>20636.5</v>
       </c>
       <c r="AD18">
-        <v>1291</v>
+        <v>421</v>
       </c>
       <c r="AE18">
-        <v>1354.526784313746</v>
+        <v>79.74086956063729</v>
       </c>
       <c r="AF18">
-        <v>312.1272878126733</v>
+        <v>-2260.00000333786</v>
       </c>
       <c r="AG18">
-        <v>3369.4</v>
+        <v>800.7</v>
       </c>
       <c r="AH18">
-        <v>10682.6</v>
+        <v>1343.8</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2368,7 +2368,7 @@
         <v>53.8</v>
       </c>
       <c r="E19">
-        <v>17751.23571455106</v>
+        <v>17751.23571461439</v>
       </c>
       <c r="F19">
         <v>23394.2812</v>
@@ -2386,10 +2386,10 @@
         <v>273.8</v>
       </c>
       <c r="K19">
-        <v>11.62338057206944</v>
+        <v>11.62338057381567</v>
       </c>
       <c r="L19">
-        <v>0.7339388513883023</v>
+        <v>0.7339388514683378</v>
       </c>
       <c r="M19">
         <v>8.38880446702516</v>
@@ -2413,16 +2413,16 @@
         <v>229933</v>
       </c>
       <c r="T19">
-        <v>14414.3780169487</v>
+        <v>14414.37802910805</v>
       </c>
       <c r="U19">
-        <v>0.3240274725467316</v>
+        <v>0.3240274725358177</v>
       </c>
       <c r="V19">
         <v>95.2</v>
       </c>
       <c r="W19">
-        <v>112.0895384480245</v>
+        <v>112.0895384675823</v>
       </c>
       <c r="X19">
         <v>5924</v>
@@ -2434,28 +2434,28 @@
         <v>102929</v>
       </c>
       <c r="AA19">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="AB19">
-        <v>79721.60000000001</v>
+        <v>22027</v>
       </c>
       <c r="AC19">
-        <v>197772.7</v>
+        <v>15961</v>
       </c>
       <c r="AD19">
-        <v>1295</v>
+        <v>122</v>
       </c>
       <c r="AE19">
-        <v>150</v>
+        <v>90.43933746757649</v>
       </c>
       <c r="AF19">
-        <v>2787.33998633522</v>
+        <v>-4550.000009536743</v>
       </c>
       <c r="AG19">
-        <v>4344.2</v>
+        <v>2394.7</v>
       </c>
       <c r="AH19">
-        <v>4746.1</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2472,7 +2472,7 @@
         <v>52.2</v>
       </c>
       <c r="E20">
-        <v>18683.71302556805</v>
+        <v>18683.71302564815</v>
       </c>
       <c r="F20">
         <v>21623.2218</v>
@@ -2490,10 +2490,10 @@
         <v>306.8378</v>
       </c>
       <c r="K20">
-        <v>13.2283420994645</v>
+        <v>13.22834210144356</v>
       </c>
       <c r="L20">
-        <v>0.7564827039368538</v>
+        <v>0.7564827040259843</v>
       </c>
       <c r="M20">
         <v>5.55561873137893</v>
@@ -2517,16 +2517,16 @@
         <v>250537</v>
       </c>
       <c r="T20">
-        <v>3815.055488586426</v>
+        <v>3815.055502414703</v>
       </c>
       <c r="U20">
-        <v>0.1982986425573472</v>
+        <v>0.1982986425355193</v>
       </c>
       <c r="V20">
         <v>97.7</v>
       </c>
       <c r="W20">
-        <v>125.1356231262907</v>
+        <v>125.1356231486425</v>
       </c>
       <c r="X20">
         <v>5925</v>
@@ -2538,28 +2538,28 @@
         <v>123892</v>
       </c>
       <c r="AA20">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="AB20">
-        <v>124148</v>
+        <v>26243</v>
       </c>
       <c r="AC20">
-        <v>198220</v>
+        <v>15688</v>
       </c>
       <c r="AD20">
-        <v>1489</v>
+        <v>319</v>
       </c>
       <c r="AE20">
-        <v>74</v>
+        <v>101.143105581228</v>
       </c>
       <c r="AF20">
-        <v>165</v>
+        <v>-7525.000018119812</v>
       </c>
       <c r="AG20">
-        <v>4767</v>
+        <v>487</v>
       </c>
       <c r="AH20">
-        <v>7546</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2576,7 +2576,7 @@
         <v>52.2337</v>
       </c>
       <c r="E21">
-        <v>19623.88291362114</v>
+        <v>19623.88291372918</v>
       </c>
       <c r="F21">
         <v>24420.9</v>
@@ -2594,25 +2594,25 @@
         <v>333.8799</v>
       </c>
       <c r="K21">
-        <v>15.16800158028491</v>
+        <v>15.1680015824968</v>
       </c>
       <c r="L21">
-        <v>0.78611816267221</v>
+        <v>0.7861181627686165</v>
       </c>
       <c r="M21">
         <v>4.70597472473153</v>
       </c>
       <c r="N21">
-        <v>131.3995098050218</v>
+        <v>131.3995098089799</v>
       </c>
       <c r="O21">
-        <v>102.3164705885574</v>
+        <v>102.3164705773816</v>
       </c>
       <c r="P21">
         <v>3142.3</v>
       </c>
       <c r="Q21">
-        <v>97.83313725449261</v>
+        <v>97.83313725548214</v>
       </c>
       <c r="R21">
         <v>40.4</v>
@@ -2621,49 +2621,49 @@
         <v>234956</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>-7726.276396989822</v>
       </c>
       <c r="U21">
-        <v>0.06241790564672556</v>
+        <v>0.06241790562853566</v>
       </c>
       <c r="V21">
         <v>97.59999999999999</v>
       </c>
       <c r="W21">
-        <v>139.2289573205635</v>
+        <v>139.2289573447779</v>
       </c>
       <c r="X21">
-        <v>4171.526960968971</v>
+        <v>4171.52696210146</v>
       </c>
       <c r="Y21">
-        <v>83.68489011155907</v>
+        <v>83.68489011196652</v>
       </c>
       <c r="Z21">
         <v>105897</v>
       </c>
       <c r="AA21">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="AB21">
-        <v>178042</v>
+        <v>16871</v>
       </c>
       <c r="AC21">
-        <v>295714</v>
+        <v>26181</v>
       </c>
       <c r="AD21">
-        <v>1769</v>
+        <v>185</v>
       </c>
       <c r="AE21">
-        <v>2108.48834365752</v>
+        <v>111.852173901592</v>
       </c>
       <c r="AF21">
-        <v>938.4509983821418</v>
+        <v>-11185.00002884865</v>
       </c>
       <c r="AG21">
-        <v>3772</v>
+        <v>1</v>
       </c>
       <c r="AH21">
-        <v>6793</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2680,7 +2680,7 @@
         <v>51.7</v>
       </c>
       <c r="E22">
-        <v>20571.74537871778</v>
+        <v>20571.74537885003</v>
       </c>
       <c r="F22">
         <v>21834.9383</v>
@@ -2692,82 +2692,82 @@
         <v>63.72</v>
       </c>
       <c r="I22">
-        <v>3.219133126939596</v>
+        <v>3.219133126929592</v>
       </c>
       <c r="J22">
-        <v>389.1037605470046</v>
+        <v>389.1037605246529</v>
       </c>
       <c r="K22">
-        <v>17.44235901453067</v>
+        <v>17.44235901674256</v>
       </c>
       <c r="L22">
-        <v>0.822845227594371</v>
+        <v>0.8228452276962344</v>
       </c>
       <c r="M22">
-        <v>2.468361005652696</v>
+        <v>2.468361009610817</v>
       </c>
       <c r="N22">
-        <v>135.6834623338655</v>
+        <v>135.6834623373579</v>
       </c>
       <c r="O22">
-        <v>118.7694840044715</v>
+        <v>118.7694839918986</v>
       </c>
       <c r="P22">
-        <v>4033.869540334952</v>
+        <v>4332.415647416049</v>
       </c>
       <c r="Q22">
-        <v>97.4378844165185</v>
+        <v>97.43788441762445</v>
       </c>
       <c r="R22">
-        <v>45.17073528841138</v>
+        <v>45.17073529865593</v>
       </c>
       <c r="S22">
         <v>197911</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>-20209.61766934395</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>-0.08361473820696119</v>
       </c>
       <c r="V22">
         <v>97.00056759594008</v>
       </c>
       <c r="W22">
-        <v>154.3695410289802</v>
+        <v>154.3695410559885</v>
       </c>
       <c r="X22">
-        <v>1847.011223316193</v>
+        <v>1847.011224508286</v>
       </c>
       <c r="Y22">
-        <v>86.27893406822113</v>
+        <v>86.27893406897783</v>
       </c>
       <c r="Z22">
-        <v>139589.0563658476</v>
+        <v>139589.0563746691</v>
       </c>
       <c r="AA22">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="AB22">
-        <v>166836.6</v>
+        <v>23913.8</v>
       </c>
       <c r="AC22">
-        <v>332065</v>
+        <v>32680.6</v>
       </c>
       <c r="AD22">
-        <v>2161</v>
+        <v>273</v>
       </c>
       <c r="AE22">
-        <v>1110.384923356062</v>
+        <v>122.566542428669</v>
       </c>
       <c r="AF22">
-        <v>736.7223536910125</v>
+        <v>-15530.00004148483</v>
       </c>
       <c r="AG22">
-        <v>1921.4</v>
+        <v>31</v>
       </c>
       <c r="AH22">
-        <v>8927.6</v>
+        <v>7067.3</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -2778,16 +2778,16 @@
         <v>34</v>
       </c>
       <c r="C23">
-        <v>59024.92481152527</v>
+        <v>59024.92481138371</v>
       </c>
       <c r="D23">
         <v>53.9</v>
       </c>
       <c r="E23">
-        <v>21527.30042085797</v>
+        <v>21527.30042101257</v>
       </c>
       <c r="F23">
-        <v>25462.90058758855</v>
+        <v>25462.90058762953</v>
       </c>
       <c r="G23">
         <v>-5.39</v>
@@ -2796,82 +2796,82 @@
         <v>65.73349068593234</v>
       </c>
       <c r="I23">
-        <v>3.185188854490661</v>
+        <v>3.185188854479748</v>
       </c>
       <c r="J23">
-        <v>426.9517511795275</v>
+        <v>426.9517511557788</v>
       </c>
       <c r="K23">
-        <v>20.05141440185253</v>
+        <v>20.05141440429725</v>
       </c>
       <c r="L23">
-        <v>0.8666638986978796</v>
+        <v>0.866663898812476</v>
       </c>
       <c r="M23">
-        <v>2.317866107216105</v>
+        <v>2.317866111639887</v>
       </c>
       <c r="N23">
-        <v>140.495717235608</v>
+        <v>140.495717239799</v>
       </c>
       <c r="O23">
-        <v>136.4636016502045</v>
+        <v>136.4636016367003</v>
       </c>
       <c r="P23">
-        <v>3377.80354863006</v>
+        <v>2758.566920164594</v>
       </c>
       <c r="Q23">
-        <v>96.96652218740201</v>
+        <v>96.96652218862437</v>
       </c>
       <c r="R23">
-        <v>51.98058822820894</v>
+        <v>51.98058824008331</v>
       </c>
       <c r="S23">
-        <v>255351.9852573872</v>
+        <v>255351.9852674007</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>-33634.96831488609</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>-0.2397992889491434</v>
       </c>
       <c r="V23">
         <v>95.96857998077758</v>
       </c>
       <c r="W23">
-        <v>170.5573742538691</v>
+        <v>170.5573742827401</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>-702.3279134631157</v>
       </c>
       <c r="Y23">
-        <v>89.05502472841181</v>
+        <v>89.05502472934313</v>
       </c>
       <c r="Z23">
-        <v>142016.5870656967</v>
+        <v>142016.587076664</v>
       </c>
       <c r="AA23">
-        <v>61.86426789664264</v>
+        <v>6.568181810667738</v>
       </c>
       <c r="AB23">
-        <v>179359.311375618</v>
+        <v>21544.73408269882</v>
       </c>
       <c r="AC23">
-        <v>366184.3932113647</v>
+        <v>32685.39772629738</v>
       </c>
       <c r="AD23">
-        <v>2287.772727381438</v>
+        <v>242.1818181090057</v>
       </c>
       <c r="AE23">
-        <v>1098.872230190311</v>
+        <v>133.2862111624581</v>
       </c>
       <c r="AF23">
-        <v>238.6944747201105</v>
+        <v>-20560.00005698204</v>
       </c>
       <c r="AG23">
-        <v>3179.370786851672</v>
+        <v>740.656020145468</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>6471.708972821488</v>
       </c>
     </row>
   </sheetData>
